--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,16 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12.140625" customWidth="1" min="1" max="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -458,12 +456,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0285212711</t>
+          <t>0285212675</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Вовичк</t>
+          <t>Катя</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -473,7 +471,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21:39:09</t>
+          <t>23:12:35</t>
         </is>
       </c>
     </row>
@@ -485,12 +483,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0285212711</t>
+          <t>0285212675</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Вовичк</t>
+          <t>Катя</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -500,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21:39:16</t>
+          <t>23:12:35</t>
         </is>
       </c>
     </row>
@@ -512,12 +510,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0285212675</t>
+          <t>0285212707</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Катя</t>
+          <t>Ева</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -527,88 +525,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21:40:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0285212675</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Катя</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ушел</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21:41:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0285212707</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ева</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>пришел</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21:43:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0285212707</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Ева</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ушел</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21:43:59</t>
+          <t>23:13:14</t>
         </is>
       </c>
     </row>
